--- a/script_master_data_beltran/ficherosExcelOrigen/DED-IBase_Adopcion IA_v2a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-IBase_Adopcion IA_v2a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9263AF0-7F3B-4CB5-A00A-4802EC08A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C315BEE-B706-4804-8699-9E765A688C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20169,7 +20169,7 @@
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AO6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
@@ -33550,6 +33550,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -33750,15 +33759,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
   <ds:schemaRefs>
@@ -33770,6 +33770,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33786,12 +33794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/script_master_data_beltran/ficherosExcelOrigen/DED-IBase_Adopcion IA_v2a.xlsx
+++ b/script_master_data_beltran/ficherosExcelOrigen/DED-IBase_Adopcion IA_v2a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C315BEE-B706-4804-8699-9E765A688C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE71A74-3F0D-4233-8E9F-868E3FCB3F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20169,10 +20169,10 @@
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AO6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
+      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20421,7 +20421,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -20485,11 +20485,11 @@
         <f>IF(OR(H6="S",M6="S",R6="S",W6="S",AB6="S",AG6="S",AL6="S"),"S","N")</f>
         <v>N</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -20553,11 +20553,11 @@
         <f t="shared" ref="AR7:AR70" si="1">IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N")</f>
         <v>N</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
@@ -20627,11 +20627,11 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -20701,11 +20701,11 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" s="27" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -20775,11 +20775,11 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="161" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
@@ -20845,11 +20845,11 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11" s="161" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:45" ht="39" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -20915,7 +20915,7 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="161" t="s">
         <v>8</v>
       </c>
     </row>
@@ -33536,6 +33536,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
@@ -33547,15 +33556,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33760,19 +33760,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
